--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F2-F2rl2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/F2-F2rl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H2">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I2">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J2">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2977046666666667</v>
+        <v>0.141621</v>
       </c>
       <c r="N2">
-        <v>0.8931140000000001</v>
+        <v>0.424863</v>
       </c>
       <c r="O2">
-        <v>0.06950565297556734</v>
+        <v>0.02425351578162834</v>
       </c>
       <c r="P2">
-        <v>0.06950565297556732</v>
+        <v>0.02425351578162833</v>
       </c>
       <c r="Q2">
-        <v>0.273104436946</v>
+        <v>0.176935706974</v>
       </c>
       <c r="R2">
-        <v>2.457939932514</v>
+        <v>1.592421362766</v>
       </c>
       <c r="S2">
-        <v>0.02742575880409449</v>
+        <v>0.01052066404890867</v>
       </c>
       <c r="T2">
-        <v>0.02742575880409448</v>
+        <v>0.01052066404890867</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H3">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I3">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J3">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.108688666666667</v>
+        <v>0.2977046666666667</v>
       </c>
       <c r="N3">
-        <v>6.326066</v>
+        <v>0.8931140000000001</v>
       </c>
       <c r="O3">
-        <v>0.4923193994232935</v>
+        <v>0.05098385713463684</v>
       </c>
       <c r="P3">
-        <v>0.4923193994232934</v>
+        <v>0.05098385713463684</v>
       </c>
       <c r="Q3">
-        <v>1.934441396074</v>
+        <v>0.3719405008164445</v>
       </c>
       <c r="R3">
-        <v>17.409972564666</v>
+        <v>3.347464507348</v>
       </c>
       <c r="S3">
-        <v>0.194260934544507</v>
+        <v>0.02211572283624844</v>
       </c>
       <c r="T3">
-        <v>0.1942609345445069</v>
+        <v>0.02211572283624844</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H4">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I4">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J4">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3050356666666666</v>
+        <v>3.423988666666666</v>
       </c>
       <c r="N4">
-        <v>0.915107</v>
+        <v>10.271966</v>
       </c>
       <c r="O4">
-        <v>0.07121723495266281</v>
+        <v>0.5863802907980918</v>
       </c>
       <c r="P4">
-        <v>0.0712172349526628</v>
+        <v>0.5863802907980917</v>
       </c>
       <c r="Q4">
-        <v>0.279829654423</v>
+        <v>4.277796763245778</v>
       </c>
       <c r="R4">
-        <v>2.518466889807</v>
+        <v>38.500170869212</v>
       </c>
       <c r="S4">
-        <v>0.02810112019511338</v>
+        <v>0.2543594132880769</v>
       </c>
       <c r="T4">
-        <v>0.02810112019511337</v>
+        <v>0.2543594132880769</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9173669999999999</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H5">
-        <v>2.752101</v>
+        <v>3.748082</v>
       </c>
       <c r="I5">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J5">
-        <v>0.3945831400754584</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.571743</v>
+        <v>0.3712536666666666</v>
       </c>
       <c r="N5">
-        <v>4.715229</v>
+        <v>1.113761</v>
       </c>
       <c r="O5">
-        <v>0.3669577126484764</v>
+        <v>0.06357960093126998</v>
       </c>
       <c r="P5">
-        <v>0.3669577126484764</v>
+        <v>0.06357960093126998</v>
       </c>
       <c r="Q5">
-        <v>1.441865160681</v>
+        <v>0.4638297284891111</v>
       </c>
       <c r="R5">
-        <v>12.976786446129</v>
+        <v>4.174467556402</v>
       </c>
       <c r="S5">
-        <v>0.1447953265317436</v>
+        <v>0.02757949106365246</v>
       </c>
       <c r="T5">
-        <v>0.1447953265317435</v>
+        <v>0.02757949106365245</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.824043</v>
+        <v>1.249360666666667</v>
       </c>
       <c r="H6">
-        <v>2.472129</v>
+        <v>3.748082</v>
       </c>
       <c r="I6">
-        <v>0.3544420875148125</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="J6">
-        <v>0.3544420875148125</v>
+        <v>0.4337789268835784</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2977046666666667</v>
+        <v>1.604626666666667</v>
       </c>
       <c r="N6">
-        <v>0.8931140000000001</v>
+        <v>4.81388</v>
       </c>
       <c r="O6">
-        <v>0.06950565297556734</v>
+        <v>0.2748027353543731</v>
       </c>
       <c r="P6">
-        <v>0.06950565297556732</v>
+        <v>0.2748027353543731</v>
       </c>
       <c r="Q6">
-        <v>0.245321446634</v>
+        <v>2.004757442017778</v>
       </c>
       <c r="R6">
-        <v>2.207893019706</v>
+        <v>18.04281697816</v>
       </c>
       <c r="S6">
-        <v>0.02463572873474023</v>
+        <v>0.119203635646692</v>
       </c>
       <c r="T6">
-        <v>0.02463572873474022</v>
+        <v>0.119203635646692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>2.472129</v>
       </c>
       <c r="I7">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J7">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>2.108688666666667</v>
+        <v>0.141621</v>
       </c>
       <c r="N7">
-        <v>6.326066</v>
+        <v>0.424863</v>
       </c>
       <c r="O7">
-        <v>0.4923193994232935</v>
+        <v>0.02425351578162834</v>
       </c>
       <c r="P7">
-        <v>0.4923193994232934</v>
+        <v>0.02425351578162833</v>
       </c>
       <c r="Q7">
-        <v>1.737650134946</v>
+        <v>0.116701793703</v>
       </c>
       <c r="R7">
-        <v>15.638851214514</v>
+        <v>1.050316143327</v>
       </c>
       <c r="S7">
-        <v>0.1744987156556309</v>
+        <v>0.006939132787000005</v>
       </c>
       <c r="T7">
-        <v>0.1744987156556309</v>
+        <v>0.006939132787000002</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>2.472129</v>
       </c>
       <c r="I8">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J8">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.3050356666666666</v>
+        <v>0.2977046666666667</v>
       </c>
       <c r="N8">
-        <v>0.915107</v>
+        <v>0.8931140000000001</v>
       </c>
       <c r="O8">
-        <v>0.07121723495266281</v>
+        <v>0.05098385713463684</v>
       </c>
       <c r="P8">
-        <v>0.0712172349526628</v>
+        <v>0.05098385713463684</v>
       </c>
       <c r="Q8">
-        <v>0.251362505867</v>
+        <v>0.245321446634</v>
       </c>
       <c r="R8">
-        <v>2.262262552803</v>
+        <v>2.207893019706</v>
       </c>
       <c r="S8">
-        <v>0.02524238542365468</v>
+        <v>0.01458690599070459</v>
       </c>
       <c r="T8">
-        <v>0.02524238542365467</v>
+        <v>0.01458690599070458</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>2.472129</v>
       </c>
       <c r="I9">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J9">
-        <v>0.3544420875148125</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.571743</v>
+        <v>3.423988666666666</v>
       </c>
       <c r="N9">
-        <v>4.715229</v>
+        <v>10.271966</v>
       </c>
       <c r="O9">
-        <v>0.3669577126484764</v>
+        <v>0.5863802907980918</v>
       </c>
       <c r="P9">
-        <v>0.3669577126484764</v>
+        <v>0.5863802907980917</v>
       </c>
       <c r="Q9">
-        <v>1.295183816949</v>
+        <v>2.821513892846</v>
       </c>
       <c r="R9">
-        <v>11.656654352541</v>
+        <v>25.393625035614</v>
       </c>
       <c r="S9">
-        <v>0.1300652577007867</v>
+        <v>0.1677682830878408</v>
       </c>
       <c r="T9">
-        <v>0.1300652577007867</v>
+        <v>0.1677682830878407</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.172111</v>
+        <v>0.824043</v>
       </c>
       <c r="H10">
-        <v>0.5163329999999999</v>
+        <v>2.472129</v>
       </c>
       <c r="I10">
-        <v>0.07402936755031217</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J10">
-        <v>0.07402936755031216</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2977046666666667</v>
+        <v>0.3712536666666666</v>
       </c>
       <c r="N10">
-        <v>0.8931140000000001</v>
+        <v>1.113761</v>
       </c>
       <c r="O10">
-        <v>0.06950565297556734</v>
+        <v>0.06357960093126998</v>
       </c>
       <c r="P10">
-        <v>0.06950565297556732</v>
+        <v>0.06357960093126998</v>
       </c>
       <c r="Q10">
-        <v>0.05123824788466667</v>
+        <v>0.305928985241</v>
       </c>
       <c r="R10">
-        <v>0.461144230962</v>
+        <v>2.753360867169</v>
       </c>
       <c r="S10">
-        <v>0.005145459530952723</v>
+        <v>0.01819065315638668</v>
       </c>
       <c r="T10">
-        <v>0.005145459530952721</v>
+        <v>0.01819065315638667</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.172111</v>
+        <v>0.824043</v>
       </c>
       <c r="H11">
-        <v>0.5163329999999999</v>
+        <v>2.472129</v>
       </c>
       <c r="I11">
-        <v>0.07402936755031217</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="J11">
-        <v>0.07402936755031216</v>
+        <v>0.2861083254682725</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.108688666666667</v>
+        <v>1.604626666666667</v>
       </c>
       <c r="N11">
-        <v>6.326066</v>
+        <v>4.81388</v>
       </c>
       <c r="O11">
-        <v>0.4923193994232935</v>
+        <v>0.2748027353543731</v>
       </c>
       <c r="P11">
-        <v>0.4923193994232934</v>
+        <v>0.2748027353543731</v>
       </c>
       <c r="Q11">
-        <v>0.3629285151086666</v>
+        <v>1.32228137228</v>
       </c>
       <c r="R11">
-        <v>3.266356635978</v>
+        <v>11.90053235052</v>
       </c>
       <c r="S11">
-        <v>0.03644609377205594</v>
+        <v>0.07862335044634054</v>
       </c>
       <c r="T11">
-        <v>0.03644609377205592</v>
+        <v>0.07862335044634053</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.172111</v>
+        <v>0.040438</v>
       </c>
       <c r="H12">
-        <v>0.5163329999999999</v>
+        <v>0.121314</v>
       </c>
       <c r="I12">
-        <v>0.07402936755031217</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J12">
-        <v>0.07402936755031216</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.3050356666666666</v>
+        <v>0.141621</v>
       </c>
       <c r="N12">
-        <v>0.915107</v>
+        <v>0.424863</v>
       </c>
       <c r="O12">
-        <v>0.07121723495266281</v>
+        <v>0.02425351578162834</v>
       </c>
       <c r="P12">
-        <v>0.0712172349526628</v>
+        <v>0.02425351578162833</v>
       </c>
       <c r="Q12">
-        <v>0.05249999362566666</v>
+        <v>0.005726869998</v>
       </c>
       <c r="R12">
-        <v>0.4724999426309999</v>
+        <v>0.051541829982</v>
       </c>
       <c r="S12">
-        <v>0.005272166862227614</v>
+        <v>0.0003405218558263418</v>
       </c>
       <c r="T12">
-        <v>0.005272166862227612</v>
+        <v>0.0003405218558263417</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.040438</v>
+      </c>
+      <c r="H13">
+        <v>0.121314</v>
+      </c>
+      <c r="I13">
+        <v>0.01404010284085418</v>
+      </c>
+      <c r="J13">
+        <v>0.01404010284085418</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.172111</v>
-      </c>
-      <c r="H13">
-        <v>0.5163329999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.07402936755031217</v>
-      </c>
-      <c r="J13">
-        <v>0.07402936755031216</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
       <c r="M13">
-        <v>1.571743</v>
+        <v>0.2977046666666667</v>
       </c>
       <c r="N13">
-        <v>4.715229</v>
+        <v>0.8931140000000001</v>
       </c>
       <c r="O13">
-        <v>0.3669577126484764</v>
+        <v>0.05098385713463684</v>
       </c>
       <c r="P13">
-        <v>0.3669577126484764</v>
+        <v>0.05098385713463684</v>
       </c>
       <c r="Q13">
-        <v>0.270514259473</v>
+        <v>0.01203858131066667</v>
       </c>
       <c r="R13">
-        <v>2.434628335257</v>
+        <v>0.108347231796</v>
       </c>
       <c r="S13">
-        <v>0.0271656473850759</v>
+        <v>0.0007158185973937185</v>
       </c>
       <c r="T13">
-        <v>0.02716564738507589</v>
+        <v>0.0007158185973937185</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,87 +1275,87 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3345336666666667</v>
+        <v>0.040438</v>
       </c>
       <c r="H14">
-        <v>1.003601</v>
+        <v>0.121314</v>
       </c>
       <c r="I14">
-        <v>0.1438915337637936</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J14">
-        <v>0.1438915337637936</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2977046666666667</v>
+        <v>3.423988666666666</v>
       </c>
       <c r="N14">
-        <v>0.8931140000000001</v>
+        <v>10.271966</v>
       </c>
       <c r="O14">
-        <v>0.06950565297556734</v>
+        <v>0.5863802907980918</v>
       </c>
       <c r="P14">
-        <v>0.06950565297556732</v>
+        <v>0.5863802907980917</v>
       </c>
       <c r="Q14">
-        <v>0.09959223372377778</v>
+        <v>0.1384592537026667</v>
       </c>
       <c r="R14">
-        <v>0.896330103514</v>
+        <v>1.246133283324</v>
       </c>
       <c r="S14">
-        <v>0.01000127501190837</v>
+        <v>0.008232839586655192</v>
       </c>
       <c r="T14">
-        <v>0.01000127501190837</v>
+        <v>0.00823283958665519</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3345336666666667</v>
+        <v>0.040438</v>
       </c>
       <c r="H15">
-        <v>1.003601</v>
+        <v>0.121314</v>
       </c>
       <c r="I15">
-        <v>0.1438915337637936</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J15">
-        <v>0.1438915337637936</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.108688666666667</v>
+        <v>0.3712536666666666</v>
       </c>
       <c r="N15">
-        <v>6.326066</v>
+        <v>1.113761</v>
       </c>
       <c r="O15">
-        <v>0.4923193994232935</v>
+        <v>0.06357960093126998</v>
       </c>
       <c r="P15">
-        <v>0.4923193994232934</v>
+        <v>0.06357960093126998</v>
       </c>
       <c r="Q15">
-        <v>0.7054273515184445</v>
+        <v>0.01501275577266667</v>
       </c>
       <c r="R15">
-        <v>6.348846163666</v>
+        <v>0.135114801954</v>
       </c>
       <c r="S15">
-        <v>0.07084059348468742</v>
+        <v>0.0008926641356554989</v>
       </c>
       <c r="T15">
-        <v>0.07084059348468741</v>
+        <v>0.0008926641356554989</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,25 +1399,25 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3345336666666667</v>
+        <v>0.040438</v>
       </c>
       <c r="H16">
-        <v>1.003601</v>
+        <v>0.121314</v>
       </c>
       <c r="I16">
-        <v>0.1438915337637936</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="J16">
-        <v>0.1438915337637936</v>
+        <v>0.01404010284085418</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3050356666666666</v>
+        <v>1.604626666666667</v>
       </c>
       <c r="N16">
-        <v>0.915107</v>
+        <v>4.81388</v>
       </c>
       <c r="O16">
-        <v>0.07121723495266281</v>
+        <v>0.2748027353543731</v>
       </c>
       <c r="P16">
-        <v>0.0712172349526628</v>
+        <v>0.2748027353543731</v>
       </c>
       <c r="Q16">
-        <v>0.1020447000341111</v>
+        <v>0.06488789314666667</v>
       </c>
       <c r="R16">
-        <v>0.918402300307</v>
+        <v>0.58399103832</v>
       </c>
       <c r="S16">
-        <v>0.0102475571677551</v>
+        <v>0.003858258665323434</v>
       </c>
       <c r="T16">
-        <v>0.0102475571677551</v>
+        <v>0.003858258665323434</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3345336666666667</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H17">
-        <v>1.003601</v>
+        <v>1.615757</v>
       </c>
       <c r="I17">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J17">
-        <v>0.1438915337637936</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>1.571743</v>
+        <v>0.141621</v>
       </c>
       <c r="N17">
-        <v>4.715229</v>
+        <v>0.424863</v>
       </c>
       <c r="O17">
-        <v>0.3669577126484764</v>
+        <v>0.02425351578162834</v>
       </c>
       <c r="P17">
-        <v>0.3669577126484764</v>
+        <v>0.02425351578162833</v>
       </c>
       <c r="Q17">
-        <v>0.5258009488476666</v>
+        <v>0.07627504069900001</v>
       </c>
       <c r="R17">
-        <v>4.732208539629</v>
+        <v>0.686475366291</v>
       </c>
       <c r="S17">
-        <v>0.05280210809944272</v>
+        <v>0.004535342765092262</v>
       </c>
       <c r="T17">
-        <v>0.05280210809944271</v>
+        <v>0.004535342765092261</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.076847</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H18">
-        <v>0.230541</v>
+        <v>1.615757</v>
       </c>
       <c r="I18">
-        <v>0.0330538710956234</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J18">
-        <v>0.0330538710956234</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,27 +1556,27 @@
         <v>0.8931140000000001</v>
       </c>
       <c r="O18">
-        <v>0.06950565297556734</v>
+        <v>0.05098385713463684</v>
       </c>
       <c r="P18">
-        <v>0.06950565297556732</v>
+        <v>0.05098385713463684</v>
       </c>
       <c r="Q18">
-        <v>0.02287771051933333</v>
+        <v>0.1603394663664445</v>
       </c>
       <c r="R18">
-        <v>0.205899394674</v>
+        <v>1.443055197298</v>
       </c>
       <c r="S18">
-        <v>0.002297430893871536</v>
+        <v>0.009533845306140119</v>
       </c>
       <c r="T18">
-        <v>0.002297430893871535</v>
+        <v>0.009533845306140119</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.076847</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H19">
-        <v>0.230541</v>
+        <v>1.615757</v>
       </c>
       <c r="I19">
-        <v>0.0330538710956234</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J19">
-        <v>0.0330538710956234</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.108688666666667</v>
+        <v>3.423988666666666</v>
       </c>
       <c r="N19">
-        <v>6.326066</v>
+        <v>10.271966</v>
       </c>
       <c r="O19">
-        <v>0.4923193994232935</v>
+        <v>0.5863802907980918</v>
       </c>
       <c r="P19">
-        <v>0.4923193994232934</v>
+        <v>0.5863802907980917</v>
       </c>
       <c r="Q19">
-        <v>0.1620463979673333</v>
+        <v>1.844111218695778</v>
       </c>
       <c r="R19">
-        <v>1.458417581706</v>
+        <v>16.597000968262</v>
       </c>
       <c r="S19">
-        <v>0.01627306196641227</v>
+        <v>0.1096515504559674</v>
       </c>
       <c r="T19">
-        <v>0.01627306196641227</v>
+        <v>0.1096515504559674</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.076847</v>
+        <v>0.5385856666666667</v>
       </c>
       <c r="H20">
-        <v>0.230541</v>
+        <v>1.615757</v>
       </c>
       <c r="I20">
-        <v>0.0330538710956234</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="J20">
-        <v>0.0330538710956234</v>
+        <v>0.1869973329197787</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,33 +1674,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.3050356666666666</v>
+        <v>0.3712536666666666</v>
       </c>
       <c r="N20">
-        <v>0.915107</v>
+        <v>1.113761</v>
       </c>
       <c r="O20">
-        <v>0.07121723495266281</v>
+        <v>0.06357960093126998</v>
       </c>
       <c r="P20">
-        <v>0.0712172349526628</v>
+        <v>0.06357960093126998</v>
       </c>
       <c r="Q20">
-        <v>0.02344107587633333</v>
+        <v>0.1999519035641111</v>
       </c>
       <c r="R20">
-        <v>0.210969682887</v>
+        <v>1.799567132077</v>
       </c>
       <c r="S20">
-        <v>0.002354005303912042</v>
+        <v>0.01188921580225136</v>
       </c>
       <c r="T20">
-        <v>0.002354005303912042</v>
+        <v>0.01188921580225136</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5385856666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.615757</v>
+      </c>
+      <c r="I21">
+        <v>0.1869973329197787</v>
+      </c>
+      <c r="J21">
+        <v>0.1869973329197787</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.604626666666667</v>
+      </c>
+      <c r="N21">
+        <v>4.81388</v>
+      </c>
+      <c r="O21">
+        <v>0.2748027353543731</v>
+      </c>
+      <c r="P21">
+        <v>0.2748027353543731</v>
+      </c>
+      <c r="Q21">
+        <v>0.8642289230177779</v>
+      </c>
+      <c r="R21">
+        <v>7.778060307160001</v>
+      </c>
+      <c r="S21">
+        <v>0.05138737859032756</v>
+      </c>
+      <c r="T21">
+        <v>0.05138737859032756</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.227751</v>
+      </c>
+      <c r="H22">
+        <v>0.683253</v>
+      </c>
+      <c r="I22">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="J22">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G21">
-        <v>0.076847</v>
-      </c>
-      <c r="H21">
-        <v>0.230541</v>
-      </c>
-      <c r="I21">
-        <v>0.0330538710956234</v>
-      </c>
-      <c r="J21">
-        <v>0.0330538710956234</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.571743</v>
-      </c>
-      <c r="N21">
-        <v>4.715229</v>
-      </c>
-      <c r="O21">
-        <v>0.3669577126484764</v>
-      </c>
-      <c r="P21">
-        <v>0.3669577126484764</v>
-      </c>
-      <c r="Q21">
-        <v>0.120783734321</v>
-      </c>
-      <c r="R21">
-        <v>1.087053608889</v>
-      </c>
-      <c r="S21">
-        <v>0.01212937293142755</v>
-      </c>
-      <c r="T21">
-        <v>0.01212937293142755</v>
+      <c r="M22">
+        <v>0.141621</v>
+      </c>
+      <c r="N22">
+        <v>0.424863</v>
+      </c>
+      <c r="O22">
+        <v>0.02425351578162834</v>
+      </c>
+      <c r="P22">
+        <v>0.02425351578162833</v>
+      </c>
+      <c r="Q22">
+        <v>0.032254324371</v>
+      </c>
+      <c r="R22">
+        <v>0.290288919339</v>
+      </c>
+      <c r="S22">
+        <v>0.001917854324801058</v>
+      </c>
+      <c r="T22">
+        <v>0.001917854324801057</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.227751</v>
+      </c>
+      <c r="H23">
+        <v>0.683253</v>
+      </c>
+      <c r="I23">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="J23">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.2977046666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.8931140000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.05098385713463684</v>
+      </c>
+      <c r="P23">
+        <v>0.05098385713463684</v>
+      </c>
+      <c r="Q23">
+        <v>0.067802535538</v>
+      </c>
+      <c r="R23">
+        <v>0.610222819842</v>
+      </c>
+      <c r="S23">
+        <v>0.004031564404149977</v>
+      </c>
+      <c r="T23">
+        <v>0.004031564404149977</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.227751</v>
+      </c>
+      <c r="H24">
+        <v>0.683253</v>
+      </c>
+      <c r="I24">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="J24">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.423988666666666</v>
+      </c>
+      <c r="N24">
+        <v>10.271966</v>
+      </c>
+      <c r="O24">
+        <v>0.5863802907980918</v>
+      </c>
+      <c r="P24">
+        <v>0.5863802907980917</v>
+      </c>
+      <c r="Q24">
+        <v>0.7798168428219999</v>
+      </c>
+      <c r="R24">
+        <v>7.018351585397999</v>
+      </c>
+      <c r="S24">
+        <v>0.04636820437955157</v>
+      </c>
+      <c r="T24">
+        <v>0.04636820437955156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.227751</v>
+      </c>
+      <c r="H25">
+        <v>0.683253</v>
+      </c>
+      <c r="I25">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="J25">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.3712536666666666</v>
+      </c>
+      <c r="N25">
+        <v>1.113761</v>
+      </c>
+      <c r="O25">
+        <v>0.06357960093126998</v>
+      </c>
+      <c r="P25">
+        <v>0.06357960093126998</v>
+      </c>
+      <c r="Q25">
+        <v>0.084553393837</v>
+      </c>
+      <c r="R25">
+        <v>0.760980544533</v>
+      </c>
+      <c r="S25">
+        <v>0.005027576773323991</v>
+      </c>
+      <c r="T25">
+        <v>0.005027576773323991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.227751</v>
+      </c>
+      <c r="H26">
+        <v>0.683253</v>
+      </c>
+      <c r="I26">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="J26">
+        <v>0.07907531188751622</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.604626666666667</v>
+      </c>
+      <c r="N26">
+        <v>4.81388</v>
+      </c>
+      <c r="O26">
+        <v>0.2748027353543731</v>
+      </c>
+      <c r="P26">
+        <v>0.2748027353543731</v>
+      </c>
+      <c r="Q26">
+        <v>0.36545532796</v>
+      </c>
+      <c r="R26">
+        <v>3.28909795164</v>
+      </c>
+      <c r="S26">
+        <v>0.02173011200568964</v>
+      </c>
+      <c r="T26">
+        <v>0.02173011200568964</v>
       </c>
     </row>
   </sheetData>
